--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2365885.628549548</v>
+        <v>2365051.306134162</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7247110.138949863</v>
+        <v>7247110.138949864</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>165.3123431900695</v>
       </c>
       <c r="E2" t="n">
-        <v>232.3903356603219</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>138.3602290025708</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.4244863032719</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -882,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>193.5853516997776</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>76.33211384749302</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>153.164871362284</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>177.2569519771748</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>105.6645165845329</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>254.0209465050313</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>25.47589990595215</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1533,22 +1533,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>17.50491378630643</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>74.83686693594031</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C14" t="n">
         <v>376.5244030535246</v>
@@ -1621,13 +1621,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>96.75846718905208</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.5176690378318</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1830,10 +1830,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535253</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
         <v>190.4854774862718</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>127.7438795055977</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2064,13 +2064,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>46.70189458407641</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2241,25 +2241,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>26.62681580700227</v>
+        <v>102.4673613588525</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
         <v>246.7800261198764</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>203.2853621180017</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106875</v>
+        <v>390.4479524106874</v>
       </c>
       <c r="C26" t="n">
         <v>390.3523293227055</v>
@@ -2572,7 +2572,7 @@
         <v>388.969985808939</v>
       </c>
       <c r="H26" t="n">
-        <v>272.7839814993122</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T26" t="n">
         <v>204.3134037554527</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>101.2172069271545</v>
       </c>
       <c r="V26" t="n">
         <v>330.668163659727</v>
@@ -2715,19 +2715,19 @@
         <v>170.1516938729469</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>43.03363556282626</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>37.8545663085883</v>
       </c>
       <c r="T28" t="n">
         <v>221.4822361759078</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890573</v>
+        <v>260.6079523890572</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617564</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679659</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106875</v>
+        <v>390.4479524106874</v>
       </c>
       <c r="C29" t="n">
         <v>390.3523293227055</v>
@@ -2800,7 +2800,7 @@
         <v>384.748275150713</v>
       </c>
       <c r="E29" t="n">
-        <v>256.9241334323418</v>
+        <v>187.1069038334016</v>
       </c>
       <c r="F29" t="n">
         <v>401.1490924686922</v>
@@ -2812,7 +2812,7 @@
         <v>292.1283969414021</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>69.81722959894047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.2572489966831</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T29" t="n">
         <v>204.3134037554527</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>58.09938847498006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>137.3511775467272</v>
       </c>
       <c r="T31" t="n">
         <v>221.4822361759078</v>
@@ -3012,13 +3012,13 @@
         <v>255.4758721527162</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890573</v>
+        <v>260.6079523890572</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617564</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679659</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106875</v>
+        <v>390.4479524106874</v>
       </c>
       <c r="C32" t="n">
-        <v>182.9334352849918</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D32" t="n">
         <v>384.748275150713</v>
@@ -3049,7 +3049,7 @@
         <v>292.1283969414021</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894051</v>
+        <v>69.81722959894047</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2572489966831</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T32" t="n">
         <v>204.3134037554527</v>
@@ -3091,7 +3091,7 @@
         <v>330.668163659727</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>156.8327883613131</v>
       </c>
       <c r="X32" t="n">
         <v>380.9659483955799</v>
@@ -3189,25 +3189,25 @@
         <v>170.1516938729469</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232067</v>
+        <v>37.85456630858823</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956005</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>70.97637395042332</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>260.6079523890572</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617564</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679659</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106875</v>
+        <v>390.4479524106874</v>
       </c>
       <c r="C35" t="n">
         <v>390.3523293227055</v>
       </c>
       <c r="D35" t="n">
-        <v>177.3293811129992</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E35" t="n">
         <v>394.5257978711152</v>
@@ -3286,7 +3286,7 @@
         <v>292.1283969414021</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894051</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>204.3134037554527</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>219.4744559238377</v>
       </c>
       <c r="V35" t="n">
         <v>330.668163659727</v>
@@ -3426,25 +3426,25 @@
         <v>170.1516938729469</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956005</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.8545663085883</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>70.97637395042332</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>260.6079523890572</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617564</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679659</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106875</v>
+        <v>371.1035369685976</v>
       </c>
       <c r="C38" t="n">
         <v>390.3523293227055</v>
@@ -3520,10 +3520,10 @@
         <v>388.969985808939</v>
       </c>
       <c r="H38" t="n">
-        <v>84.70950290368847</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894051</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>204.3134037554527</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>91.57857769941525</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.213610800862286</v>
+        <v>168.8568349817317</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V40" t="n">
         <v>255.4758721527162</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617564</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679659</v>
+        <v>206.8173261679658</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,13 +3748,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>372.3536886992978</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>165.421695385058</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>198.1544528034812</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>358.7938392237629</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>22.92681701721074</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>82.85798684944108</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>13.99093019797741</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1105.989063098952</v>
+        <v>1458.930348750966</v>
       </c>
       <c r="C2" t="n">
-        <v>1099.904876452626</v>
+        <v>1452.84616210464</v>
       </c>
       <c r="D2" t="n">
-        <v>695.440946545687</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>460.703233757483</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>443.7132257515746</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4366,16 +4366,16 @@
         <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1516.210242763442</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1516.210242763442</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1516.210242763442</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1516.210242763442</v>
+        <v>1465.111124375051</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844746</v>
@@ -4409,22 +4409,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227551</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.6162651411894</v>
+        <v>650.137706920372</v>
       </c>
       <c r="C4" t="n">
-        <v>181.5228927029059</v>
+        <v>650.137706920372</v>
       </c>
       <c r="D4" t="n">
-        <v>181.5228927029059</v>
+        <v>650.137706920372</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>489.2268917886915</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>324.5957658992828</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>157.3453748248262</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>157.3453748248262</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1331.615243227154</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>1057.729498166676</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W4" t="n">
-        <v>778.6598336755503</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X4" t="n">
-        <v>540.3159715352338</v>
+        <v>650.137706920372</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.3159715352338</v>
+        <v>650.137706920372</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1066.882057025439</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C5" t="n">
-        <v>656.7574663387092</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D5" t="n">
-        <v>656.3339404721737</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E5" t="n">
-        <v>241.9937249890704</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4576,16 +4576,16 @@
         <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X5" t="n">
-        <v>1073.062832649525</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.062832649525</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.9953472308603</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>506.9953472308603</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>352.2833559558259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>786.0650117219859</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W7" t="n">
-        <v>506.9953472308603</v>
+        <v>835.4326634965275</v>
       </c>
       <c r="X7" t="n">
-        <v>506.9953472308603</v>
+        <v>597.0888013562109</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.9953472308603</v>
+        <v>372.3531027449756</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>795.1993990705207</v>
+        <v>1603.280207151329</v>
       </c>
       <c r="C8" t="n">
-        <v>789.1152124241949</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D8" t="n">
-        <v>788.6916865576594</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E8" t="n">
-        <v>778.3918751149602</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>357.3614630686478</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
         <v>352.673583001884</v>
@@ -4804,25 +4804,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1846.241371340331</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>1589.180879599842</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>1589.180879599842</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W8" t="n">
-        <v>1205.42057873501</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X8" t="n">
-        <v>1205.42057873501</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.42057873501</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.0829448374625</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0829448374625</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>472.349712609228</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>472.349712609228</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>307.7185867198193</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>498.0829448374625</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>498.0829448374625</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.0829448374625</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5074,19 +5074,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>3071.501944945938</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>3438.682327735538</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>3438.682327735538</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>4312.340419847156</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O12" t="n">
-        <v>4312.340419847156</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P12" t="n">
-        <v>4312.340419847156</v>
+        <v>1814.712936990346</v>
       </c>
       <c r="Q12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.9991721489654</v>
+        <v>321.0892943552105</v>
       </c>
       <c r="C13" t="n">
-        <v>832.7027105453667</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D13" t="n">
-        <v>703.0049767029616</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E13" t="n">
-        <v>571.8910724059659</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5205,7 +5205,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M13" t="n">
         <v>927.8555407749236</v>
@@ -5226,25 +5226,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1856.27421278407</v>
+        <v>1838.592481686791</v>
       </c>
       <c r="T13" t="n">
-        <v>1646.522384595457</v>
+        <v>1628.840653498178</v>
       </c>
       <c r="U13" t="n">
-        <v>1570.929589710669</v>
+        <v>1375.839416878986</v>
       </c>
       <c r="V13" t="n">
-        <v>1326.840755484875</v>
+        <v>1131.750582653193</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.840755484875</v>
+        <v>882.4778289967524</v>
       </c>
       <c r="X13" t="n">
-        <v>1326.840755484875</v>
+        <v>673.9308776911206</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.901967708325</v>
+        <v>478.9920899145701</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
         <v>430.910136076462</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>947.1447271725442</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O15" t="n">
-        <v>1651.101817718438</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8910724059659</v>
+        <v>548.5228536411026</v>
       </c>
       <c r="C16" t="n">
-        <v>571.8910724059659</v>
+        <v>407.226392037504</v>
       </c>
       <c r="D16" t="n">
-        <v>571.8910724059659</v>
+        <v>277.5286581950988</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059659</v>
+        <v>277.5286581950988</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512421</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H16" t="n">
         <v>179.7928327516118</v>
@@ -5442,7 +5442,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M16" t="n">
         <v>927.8555407749236</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U16" t="n">
-        <v>1260.191448064751</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V16" t="n">
-        <v>1016.102613838957</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W16" t="n">
-        <v>766.8298601825164</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X16" t="n">
-        <v>766.8298601825164</v>
+        <v>901.3644369770127</v>
       </c>
       <c r="Y16" t="n">
-        <v>571.8910724059659</v>
+        <v>706.4256492004622</v>
       </c>
     </row>
     <row r="17">
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.249230305595</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="C19" t="n">
-        <v>695.249230305595</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="D19" t="n">
-        <v>565.5514964631899</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="E19" t="n">
-        <v>434.4375921661942</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="F19" t="n">
-        <v>299.6033771114703</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5709,16 +5709,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W19" t="n">
-        <v>890.1880180821455</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X19" t="n">
-        <v>890.1880180821455</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.249230305595</v>
+        <v>479.5419440130791</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M21" t="n">
-        <v>916.2303367455215</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3840521883676</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="C22" t="n">
-        <v>386.0875905847689</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="D22" t="n">
-        <v>386.0875905847689</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="E22" t="n">
-        <v>254.9736862877732</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="F22" t="n">
-        <v>120.1394712330493</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="G22" t="n">
-        <v>120.1394712330493</v>
+        <v>283.2952179625739</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5916,7 +5916,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M22" t="n">
         <v>927.8555407749236</v>
@@ -5946,16 +5946,16 @@
         <v>1338.04534048635</v>
       </c>
       <c r="V22" t="n">
-        <v>1338.04534048635</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W22" t="n">
-        <v>1088.772586829909</v>
+        <v>844.6837526041157</v>
       </c>
       <c r="X22" t="n">
-        <v>880.2256355242777</v>
+        <v>636.136801298484</v>
       </c>
       <c r="Y22" t="n">
-        <v>685.2868477477272</v>
+        <v>441.1980135219335</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489456</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764625</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6028,10 +6028,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6074,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>836.5456919091937</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C25" t="n">
-        <v>695.249230305595</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D25" t="n">
-        <v>565.5514964631899</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E25" t="n">
-        <v>434.4375921661942</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F25" t="n">
-        <v>299.6033771114703</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114703</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6153,7 +6153,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M25" t="n">
         <v>927.8555407749236</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.27421278407</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>1603.272976164879</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>1397.934226550736</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.934226550736</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X25" t="n">
-        <v>1189.387275245104</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y25" t="n">
-        <v>994.4484874685533</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2348.323962459792</v>
+        <v>2367.863776037661</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.028680315645</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D26" t="n">
-        <v>1565.394058951288</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E26" t="n">
-        <v>1166.883152010768</v>
+        <v>1186.422965588636</v>
       </c>
       <c r="F26" t="n">
-        <v>761.6820485070383</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G26" t="n">
-        <v>368.7830729424534</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T26" t="n">
-        <v>4455.807709020582</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U26" t="n">
-        <v>4214.576525822675</v>
+        <v>4234.116339400543</v>
       </c>
       <c r="V26" t="n">
-        <v>3880.568279701738</v>
+        <v>3900.108093279607</v>
       </c>
       <c r="W26" t="n">
-        <v>3512.63728737949</v>
+        <v>3532.177100957359</v>
       </c>
       <c r="X26" t="n">
-        <v>3127.823198091025</v>
+        <v>3147.363011668894</v>
       </c>
       <c r="Y26" t="n">
-        <v>2742.715833581698</v>
+        <v>2762.255647159567</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>592.7987223006619</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>587.0624990030337</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>431.7984351073331</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>288.133098972826</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6384,16 +6384,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984188</v>
+        <v>122.8405523984189</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232423</v>
+        <v>292.9071854232424</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058883</v>
+        <v>568.3185910058885</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489671</v>
+        <v>873.0969527489674</v>
       </c>
       <c r="N28" t="n">
         <v>1169.450040445803</v>
@@ -6402,34 +6402,34 @@
         <v>1444.524956074863</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.71470162706</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q28" t="n">
         <v>1746.757036732157</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S28" t="n">
-        <v>1677.313626950139</v>
+        <v>1708.520101066916</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.594196469424</v>
+        <v>1484.800670586201</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.594196469424</v>
+        <v>1217.831831674908</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.594196469424</v>
+        <v>959.775395157013</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.353840520881</v>
+        <v>696.5350392084704</v>
       </c>
       <c r="X28" t="n">
-        <v>967.8392869231477</v>
+        <v>474.0204856107366</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.9328968544953</v>
+        <v>265.1140955420843</v>
       </c>
     </row>
     <row r="29">
@@ -6448,16 +6448,16 @@
         <v>1445.942292287972</v>
       </c>
       <c r="E29" t="n">
-        <v>1186.422965588637</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F29" t="n">
-        <v>781.2218620849069</v>
+        <v>851.7443162252507</v>
       </c>
       <c r="G29" t="n">
-        <v>388.322886520322</v>
+        <v>458.8453406606658</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6548,19 +6548,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3218.778879006308</v>
+        <v>387.1270216265463</v>
       </c>
       <c r="C31" t="n">
-        <v>3218.778879006308</v>
+        <v>387.1270216265463</v>
       </c>
       <c r="D31" t="n">
-        <v>3218.778879006308</v>
+        <v>387.1270216265463</v>
       </c>
       <c r="E31" t="n">
-        <v>3218.778879006308</v>
+        <v>242.0455150374486</v>
       </c>
       <c r="F31" t="n">
-        <v>3218.778879006308</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3067.357796474434</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3067.357796474434</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3008.671545489606</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3038.268400197402</v>
+        <v>122.8405523984189</v>
       </c>
       <c r="K31" t="n">
-        <v>3208.335033222225</v>
+        <v>292.9071854232424</v>
       </c>
       <c r="L31" t="n">
-        <v>3483.746438804872</v>
+        <v>568.3185910058885</v>
       </c>
       <c r="M31" t="n">
-        <v>3788.52480054795</v>
+        <v>873.0969527489674</v>
       </c>
       <c r="N31" t="n">
-        <v>4084.877888244786</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O31" t="n">
-        <v>4359.952803873845</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P31" t="n">
-        <v>4581.142549426043</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1608.018473553645</v>
       </c>
       <c r="T31" t="n">
-        <v>4438.465454050424</v>
+        <v>1384.29904307293</v>
       </c>
       <c r="U31" t="n">
-        <v>4171.496615139132</v>
+        <v>1117.330204161637</v>
       </c>
       <c r="V31" t="n">
-        <v>3913.440178621237</v>
+        <v>859.2737676437414</v>
       </c>
       <c r="W31" t="n">
-        <v>3650.199822672694</v>
+        <v>596.0334116951987</v>
       </c>
       <c r="X31" t="n">
-        <v>3427.68526907496</v>
+        <v>596.0334116951987</v>
       </c>
       <c r="Y31" t="n">
-        <v>3218.778879006308</v>
+        <v>387.1270216265463</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2228.872195796475</v>
+        <v>2438.386230178004</v>
       </c>
       <c r="C32" t="n">
         <v>2044.090948033857</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.456326669501</v>
+        <v>1655.4563266695</v>
       </c>
       <c r="E32" t="n">
         <v>1256.94541972898</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252508</v>
+        <v>851.7443162252507</v>
       </c>
       <c r="G32" t="n">
-        <v>458.8453406606659</v>
+        <v>458.8453406606658</v>
       </c>
       <c r="H32" t="n">
         <v>163.7661518309667</v>
@@ -6739,13 +6739,13 @@
         <v>3761.116513038422</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3602.699555097702</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3217.885465809237</v>
       </c>
       <c r="Y32" t="n">
-        <v>2623.264066918382</v>
+        <v>2832.77810129991</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1071.772388193679</v>
+        <v>131.4806333558634</v>
       </c>
       <c r="C34" t="n">
-        <v>916.5083242979786</v>
+        <v>131.4806333558634</v>
       </c>
       <c r="D34" t="n">
-        <v>772.8429881634714</v>
+        <v>131.4806333558634</v>
       </c>
       <c r="E34" t="n">
-        <v>627.7614815743738</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>478.9596642275479</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>327.5385816956742</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>193.7604350437138</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984188</v>
+        <v>122.8405523984189</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232423</v>
+        <v>292.9071854232424</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058883</v>
+        <v>568.3185910058885</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489671</v>
+        <v>873.0969527489674</v>
       </c>
       <c r="N34" t="n">
         <v>1169.450040445803</v>
@@ -6876,7 +6876,7 @@
         <v>1444.524956074863</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.71470162706</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q34" t="n">
         <v>1746.757036732157</v>
@@ -6888,22 +6888,22 @@
         <v>1746.757036732157</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.063729711527</v>
+        <v>1523.037606251442</v>
       </c>
       <c r="U34" t="n">
-        <v>1675.063729711527</v>
+        <v>1256.068767340149</v>
       </c>
       <c r="V34" t="n">
-        <v>1675.063729711527</v>
+        <v>998.0123308222538</v>
       </c>
       <c r="W34" t="n">
-        <v>1675.063729711527</v>
+        <v>734.7719748737111</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.549176113793</v>
+        <v>512.2574212759773</v>
       </c>
       <c r="Y34" t="n">
-        <v>1243.642786045141</v>
+        <v>303.3510312073249</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2228.872195796475</v>
+        <v>2367.863776037661</v>
       </c>
       <c r="C35" t="n">
-        <v>1834.576913652328</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.456326669501</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.94541972898</v>
+        <v>1186.422965588636</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252508</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606659</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U35" t="n">
-        <v>4095.124759159358</v>
+        <v>4234.116339400543</v>
       </c>
       <c r="V35" t="n">
-        <v>3761.116513038422</v>
+        <v>3900.108093279607</v>
       </c>
       <c r="W35" t="n">
-        <v>3393.185520716173</v>
+        <v>3532.177100957359</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.371431427709</v>
+        <v>3147.363011668894</v>
       </c>
       <c r="Y35" t="n">
-        <v>2623.264066918382</v>
+        <v>2762.255647159567</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.772388193679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>916.5083242979786</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>772.8429881634714</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>627.7614815743738</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>478.9596642275479</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>327.5385816956742</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437138</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984188</v>
+        <v>122.8405523984189</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232423</v>
+        <v>292.9071854232424</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058883</v>
+        <v>568.3185910058885</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489671</v>
+        <v>873.0969527489674</v>
       </c>
       <c r="N37" t="n">
         <v>1169.450040445803</v>
@@ -7113,34 +7113,34 @@
         <v>1444.524956074863</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.71470162706</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q37" t="n">
         <v>1746.757036732157</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732157</v>
+        <v>1708.520101066916</v>
       </c>
       <c r="S37" t="n">
-        <v>1746.757036732157</v>
+        <v>1708.520101066916</v>
       </c>
       <c r="T37" t="n">
-        <v>1675.063729711527</v>
+        <v>1484.800670586201</v>
       </c>
       <c r="U37" t="n">
-        <v>1675.063729711527</v>
+        <v>1217.831831674908</v>
       </c>
       <c r="V37" t="n">
-        <v>1675.063729711527</v>
+        <v>959.775395157013</v>
       </c>
       <c r="W37" t="n">
-        <v>1675.063729711527</v>
+        <v>696.5350392084704</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.549176113793</v>
+        <v>474.0204856107366</v>
       </c>
       <c r="Y37" t="n">
-        <v>1243.642786045141</v>
+        <v>265.1140955420843</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228.872195796475</v>
+        <v>2367.863776037661</v>
       </c>
       <c r="C38" t="n">
-        <v>1834.576913652328</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.942292287972</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.431385347451</v>
+        <v>1186.422965588636</v>
       </c>
       <c r="F38" t="n">
-        <v>642.2302818437219</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G38" t="n">
-        <v>249.3313062791369</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3880.568279701738</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3512.63728737949</v>
       </c>
       <c r="X38" t="n">
-        <v>3008.371431427709</v>
+        <v>3127.823198091025</v>
       </c>
       <c r="Y38" t="n">
-        <v>2623.264066918382</v>
+        <v>2742.715833581698</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>392.1730977208305</v>
+        <v>619.7483580590758</v>
       </c>
       <c r="C40" t="n">
-        <v>236.9090338251299</v>
+        <v>527.2447442212826</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>527.2447442212826</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>527.2447442212826</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>378.4429268744569</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>227.0218443425832</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7332,16 +7332,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984188</v>
+        <v>122.8405523984189</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232423</v>
+        <v>292.9071854232424</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058883</v>
+        <v>568.3185910058885</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489671</v>
+        <v>873.0969527489674</v>
       </c>
       <c r="N40" t="n">
         <v>1169.450040445803</v>
@@ -7350,7 +7350,7 @@
         <v>1444.524956074863</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.71470162706</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q40" t="n">
         <v>1746.757036732157</v>
@@ -7359,25 +7359,25 @@
         <v>1746.757036732157</v>
       </c>
       <c r="S40" t="n">
-        <v>1740.480662185831</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T40" t="n">
-        <v>1516.761231705116</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="U40" t="n">
-        <v>1516.761231705116</v>
+        <v>1309.225738243357</v>
       </c>
       <c r="V40" t="n">
-        <v>1258.704795187221</v>
+        <v>1051.169301725462</v>
       </c>
       <c r="W40" t="n">
-        <v>995.4644392386781</v>
+        <v>1051.169301725462</v>
       </c>
       <c r="X40" t="n">
-        <v>772.9498856409443</v>
+        <v>828.6547481277282</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.0434955722919</v>
+        <v>619.7483580590758</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>866.6187948158295</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
         <v>490.5039577458317</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.4940887650794</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>260.4940887650794</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>260.4940887650794</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>260.4940887650794</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="U43" t="n">
-        <v>1111.429368843485</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="V43" t="n">
-        <v>1111.429368843485</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="W43" t="n">
-        <v>911.2733559106757</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X43" t="n">
-        <v>672.929493770359</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y43" t="n">
-        <v>448.1937951591237</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2485.998028320643</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C44" t="n">
-        <v>2075.873437633913</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D44" t="n">
-        <v>1671.409507726974</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E44" t="n">
-        <v>1257.069292243871</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F44" t="n">
-        <v>836.0388801975582</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G44" t="n">
-        <v>427.3105960903904</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>116.4020987181084</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7687,13 +7687,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3297.155881037042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y44" t="n">
-        <v>2896.219207985132</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>592.7079039380881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>421.6145314998046</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>407.4822787745749</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>407.4822787745749</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1297.821136963575</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>1297.821136963575</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V46" t="n">
-        <v>1297.821136963575</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W46" t="n">
-        <v>1018.751472472449</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X46" t="n">
-        <v>780.4076103321324</v>
+        <v>401.6743325134148</v>
       </c>
       <c r="Y46" t="n">
-        <v>780.4076103321324</v>
+        <v>176.9386339021794</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>493.8215862770623</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>233.6465907663771</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8224,19 +8224,19 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>362.0354133794551</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177352</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,22 +8774,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>427.0037993558997</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>384.9956049197649</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
@@ -9017,19 +9017,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>517.9682778917476</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>319.7457288112504</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9254,16 +9254,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>754.1156070065518</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M21" t="n">
-        <v>888.8639191474061</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
@@ -9500,7 +9500,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9959,10 +9959,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9971,10 +9971,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10196,22 +10196,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>531.8304305237483</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10673,7 +10673,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10682,13 +10682,13 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>572.3045076028192</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>587.0713442545288</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11147,19 +11147,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11381,22 +11381,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>137.5239949262444</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>175.6343573170588</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.7274057151246</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>77.95355521516726</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5.741993398578984</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>200.0781315358</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>91.98562310925765</v>
+        <v>16.14507755740748</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>85.49034255957919</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>38.3625837655336</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>19.34441544208988</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894051</v>
+        <v>69.81722959894047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>137.6016644387734</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E28" t="n">
-        <v>100.5970559603804</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F28" t="n">
         <v>147.3137991733576</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H28" t="n">
         <v>132.4403651854408</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956005</v>
+        <v>99.51156997956001</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.74897568419725</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817318</v>
+        <v>131.0022686731434</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>137.6016644387734</v>
+        <v>207.4188940377136</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894051</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>142.228682773162</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H31" t="n">
         <v>132.4403651854408</v>
       </c>
       <c r="I31" t="n">
-        <v>41.41218150457999</v>
+        <v>99.51156997956001</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419729</v>
+        <v>68.74897568419725</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817318</v>
+        <v>31.50565743500454</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.2894080617563</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>207.4188940377136</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>207.4188940377129</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>105.7761252146184</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>99.51156997956001</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419729</v>
+        <v>68.74897568419725</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817318</v>
+        <v>168.8568349817317</v>
       </c>
       <c r="T34" t="n">
-        <v>150.5058622254845</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>207.4188940377138</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>69.81722959894047</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>19.34441544209017</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>99.51156997956001</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419729</v>
+        <v>30.89440937560895</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817318</v>
+        <v>168.8568349817317</v>
       </c>
       <c r="T37" t="n">
-        <v>150.5058622254845</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>19.34441544208988</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4188940377136</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.81722959894047</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>118.257248996683</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.13284555732831</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232067</v>
+        <v>143.6306915232066</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956005</v>
+        <v>99.51156997956001</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419729</v>
+        <v>68.74897568419725</v>
       </c>
       <c r="S40" t="n">
-        <v>162.6432241808695</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>260.6079523890572</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>19.10615505383083</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25848,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>78.12451504273318</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.56142803888683</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>102.9647224806629</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>143.9087680323417</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640836.5081646164</v>
+        <v>640836.5081646167</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640836.5081646164</v>
+        <v>640836.5081646165</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640836.5081646164</v>
+        <v>640836.5081646165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619466.7368783256</v>
+        <v>619466.7368783257</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595248.6430279299</v>
+        <v>595248.6430279297</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595248.6430279301</v>
+        <v>595248.6430279299</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570088.3756135998</v>
+        <v>570088.3756135994</v>
       </c>
       <c r="C2" t="n">
-        <v>570088.3756135992</v>
+        <v>570088.3756135995</v>
       </c>
       <c r="D2" t="n">
         <v>570088.3756135995</v>
       </c>
       <c r="E2" t="n">
-        <v>552473.0333231011</v>
+        <v>552473.0333231009</v>
       </c>
       <c r="F2" t="n">
-        <v>552473.0333231012</v>
+        <v>552473.0333231015</v>
       </c>
       <c r="G2" t="n">
         <v>552473.0333231015</v>
       </c>
       <c r="H2" t="n">
-        <v>552473.0333231015</v>
+        <v>552473.0333231014</v>
       </c>
       <c r="I2" t="n">
-        <v>552473.0333231012</v>
+        <v>552473.0333231016</v>
       </c>
       <c r="J2" t="n">
-        <v>531103.2620368091</v>
+        <v>531103.2620368093</v>
       </c>
       <c r="K2" t="n">
-        <v>531103.2620368093</v>
+        <v>531103.2620368096</v>
       </c>
       <c r="L2" t="n">
         <v>531103.2620368095</v>
@@ -26349,13 +26349,13 @@
         <v>531103.2620368096</v>
       </c>
       <c r="N2" t="n">
-        <v>531103.2620368096</v>
+        <v>531103.2620368095</v>
       </c>
       <c r="O2" t="n">
-        <v>506885.1681864141</v>
+        <v>506885.1681864143</v>
       </c>
       <c r="P2" t="n">
-        <v>506885.1681864141</v>
+        <v>506885.1681864145</v>
       </c>
     </row>
     <row r="3">
@@ -26420,25 +26420,25 @@
         <v>213059.5462795911</v>
       </c>
       <c r="C4" t="n">
-        <v>213059.5462795911</v>
+        <v>213059.546279591</v>
       </c>
       <c r="D4" t="n">
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="F4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="G4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="H4" t="n">
         <v>118911.6321885295</v>
       </c>
       <c r="I4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="J4" t="n">
         <v>104937.8804287999</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116704.2543623971</v>
+        <v>116704.2543623967</v>
       </c>
       <c r="C6" t="n">
-        <v>291659.7642555106</v>
+        <v>291659.7642555109</v>
       </c>
       <c r="D6" t="n">
         <v>291659.7642555109</v>
       </c>
       <c r="E6" t="n">
-        <v>144487.3280771932</v>
+        <v>144436.9985277915</v>
       </c>
       <c r="F6" t="n">
-        <v>360216.2443577069</v>
+        <v>360165.9148083057</v>
       </c>
       <c r="G6" t="n">
-        <v>360216.2443577071</v>
+        <v>360165.9148083057</v>
       </c>
       <c r="H6" t="n">
-        <v>360216.2443577071</v>
+        <v>360165.9148083056</v>
       </c>
       <c r="I6" t="n">
-        <v>360216.2443577069</v>
+        <v>360165.9148083058</v>
       </c>
       <c r="J6" t="n">
-        <v>204851.1115930476</v>
+        <v>204739.7255542568</v>
       </c>
       <c r="K6" t="n">
-        <v>353982.7247646684</v>
+        <v>353871.3387258778</v>
       </c>
       <c r="L6" t="n">
-        <v>353982.7247646685</v>
+        <v>353871.3387258776</v>
       </c>
       <c r="M6" t="n">
-        <v>193624.2742639859</v>
+        <v>193512.8882251951</v>
       </c>
       <c r="N6" t="n">
-        <v>353982.7247646686</v>
+        <v>353871.3387258776</v>
       </c>
       <c r="O6" t="n">
-        <v>346918.3551698801</v>
+        <v>346737.7745772312</v>
       </c>
       <c r="P6" t="n">
-        <v>346918.3551698802</v>
+        <v>346737.7745772314</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>235.1069474178005</v>
       </c>
       <c r="E2" t="n">
-        <v>177.8064776679503</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>20.94147797779294</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0.758099133445242</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>223.2347562260717</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>303.5905840086901</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27776,13 +27776,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.7348268680351</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27791,7 +27791,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>99.02201586903954</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>114.3199026280769</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>142.9063598163595</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>132.4237983243669</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715706</v>
+        <v>15.6710154571571</v>
       </c>
     </row>
     <row r="41">
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>179.3869557635734</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34944,19 +34944,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2096305948397</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>338.0047407346343</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>500.9700927793178</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8892755450506</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>328.3029864149262</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>463.7086428889438</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>263.919946026635</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>700.9222136128019</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M21" t="n">
-        <v>831.2996354089887</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615759</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K28" t="n">
         <v>171.784477802852</v>
@@ -36761,7 +36761,7 @@
         <v>278.1933389723698</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8569310536149</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N28" t="n">
         <v>299.346553229127</v>
@@ -36773,7 +36773,7 @@
         <v>223.4239854062605</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060234</v>
+        <v>81.86094455060238</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615759</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K31" t="n">
         <v>171.784477802852</v>
@@ -36998,7 +36998,7 @@
         <v>278.1933389723698</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8569310536149</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N31" t="n">
         <v>299.346553229127</v>
@@ -37010,7 +37010,7 @@
         <v>223.4239854062605</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060234</v>
+        <v>81.86094455060238</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615759</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K34" t="n">
         <v>171.784477802852</v>
@@ -37235,7 +37235,7 @@
         <v>278.1933389723698</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8569310536149</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N34" t="n">
         <v>299.346553229127</v>
@@ -37247,7 +37247,7 @@
         <v>223.4239854062605</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060234</v>
+        <v>81.86094455060238</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>518.0448726000154</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615759</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K37" t="n">
         <v>171.784477802852</v>
@@ -37472,7 +37472,7 @@
         <v>278.1933389723698</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8569310536149</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N37" t="n">
         <v>299.346553229127</v>
@@ -37484,7 +37484,7 @@
         <v>223.4239854062605</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060234</v>
+        <v>81.86094455060238</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>529.5070605161113</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615759</v>
+        <v>29.89581283615762</v>
       </c>
       <c r="K40" t="n">
         <v>171.784477802852</v>
@@ -37709,7 +37709,7 @@
         <v>278.1933389723698</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8569310536149</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N40" t="n">
         <v>299.346553229127</v>
@@ -37721,7 +37721,7 @@
         <v>223.4239854062605</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060234</v>
+        <v>81.86094455060238</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37867,19 +37867,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
